--- a/飞机大战项目/飞机大战测试文档.xlsx
+++ b/飞机大战项目/飞机大战测试文档.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\学校\软件开发及其应用\FourKings\飞机大战项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FA1B8B-6270-4386-B4F1-F55002A56419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E036E92D-6CC7-4CFB-A265-7ADC51645E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1470" windowWidth="16200" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="1020" windowWidth="16740" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -319,15 +319,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Fail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>音频与游戏特效控制开关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法关闭音频，并且无法控制游戏特效的开启和关闭</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -407,11 +399,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.进入计算器                    
-2.在计算器界面长按POWER键，选择游戏                             3.开机进入游戏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.进入游戏
 2.在游戏里积分有封顶值</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -439,6 +426,83 @@
   </si>
   <si>
     <t>飞机大战界面显示正常，横竖屏能正常切换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入游戏                   
+2.在游戏界面长按POWER键，选择游戏                             3.开机进入游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试补充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机操控预备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入游戏                   
+2.开始游戏                              3.点击游戏界面开始操控游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机可以进行操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机加速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入游戏                   
+2.开始游戏                               3.按住空格可以进行飞机的加速操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机可以进行加速操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机子弹机制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机子弹奖励规律</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入游戏                   
+2.开始游戏                               3.随着游戏的进行飞机子弹数目会增多（上限为三个一发）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏飞机子弹可以正常变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏敌人随机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏敌人变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入游戏                   
+2.开始游戏                               3.游戏的敌人完全随机（可能一开始就会出现boss）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人的出现完全随机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -786,6 +850,30 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,32 +883,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -835,7 +899,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color indexed="25"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color indexed="30"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1274,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1340,68 +1431,68 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="24.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1433,11 +1524,11 @@
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
@@ -1449,7 +1540,7 @@
       <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1477,7 +1568,7 @@
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="11" t="s">
         <v>42</v>
       </c>
@@ -1503,7 +1594,7 @@
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="11" t="s">
         <v>43</v>
       </c>
@@ -1529,10 +1620,10 @@
       <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -1561,7 +1652,7 @@
       <c r="C13" s="35"/>
       <c r="D13" s="37"/>
       <c r="E13" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>47</v>
@@ -1635,7 +1726,7 @@
       <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -1665,7 +1756,7 @@
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>15</v>
@@ -1680,24 +1771,20 @@
         <v>12</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="13">
-        <v>1</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>70</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
@@ -1709,8 +1796,8 @@
       <c r="A19" s="10">
         <v>12</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>72</v>
+      <c r="B19" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>41</v>
@@ -1719,10 +1806,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>17</v>
@@ -1737,18 +1824,18 @@
       <c r="A20" s="10">
         <v>13</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>17</v>
@@ -1763,18 +1850,18 @@
       <c r="A21" s="10">
         <v>14</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>17</v>
@@ -1789,20 +1876,20 @@
       <c r="A22" s="10">
         <v>15</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>79</v>
+      <c r="B22" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>12</v>
@@ -1817,18 +1904,18 @@
       <c r="A23" s="10">
         <v>16</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>12</v>
@@ -1843,11 +1930,11 @@
       <c r="A24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
@@ -1869,10 +1956,10 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>17</v>
@@ -1882,7 +1969,7 @@
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.2">
@@ -1899,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="13" t="s">
@@ -1925,10 +2012,10 @@
         <v>23</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>17</v>
@@ -1953,10 +2040,10 @@
         <v>15</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>12</v>
@@ -1967,13 +2054,137 @@
       <c r="I28" s="13"/>
       <c r="J28" s="11"/>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>21</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>22</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>23</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="19">
+        <v>24</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
+  <mergeCells count="21">
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="I3:I6"/>
     <mergeCell ref="J3:J6"/>
@@ -1989,20 +2200,36 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H1:H3 H7:H9">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"NT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
@@ -2013,18 +2240,18 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H22">
     <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
@@ -2035,7 +2262,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
@@ -2046,7 +2273,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H29">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
@@ -2058,10 +2285,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IT3:IT9 SP3:SP9 ACL3:ACL9 AMH3:AMH9 AWD3:AWD9 BFZ3:BFZ9 BPV3:BPV9 BZR3:BZR9 CJN3:CJN9 CTJ3:CTJ9 DDF3:DDF9 DNB3:DNB9 DWX3:DWX9 EGT3:EGT9 EQP3:EQP9 FAL3:FAL9 FKH3:FKH9 FUD3:FUD9 GDZ3:GDZ9 GNV3:GNV9 GXR3:GXR9 HHN3:HHN9 HRJ3:HRJ9 IBF3:IBF9 ILB3:ILB9 IUX3:IUX9 JET3:JET9 JOP3:JOP9 JYL3:JYL9 KIH3:KIH9 KSD3:KSD9 LBZ3:LBZ9 LLV3:LLV9 LVR3:LVR9 MFN3:MFN9 MPJ3:MPJ9 MZF3:MZF9 NJB3:NJB9 NSX3:NSX9 OCT3:OCT9 OMP3:OMP9 OWL3:OWL9 PGH3:PGH9 PQD3:PQD9 PZZ3:PZZ9 QJV3:QJV9 QTR3:QTR9 RDN3:RDN9 RNJ3:RNJ9 RXF3:RXF9 SHB3:SHB9 SQX3:SQX9 TAT3:TAT9 TKP3:TKP9 TUL3:TUL9 UEH3:UEH9 UOD3:UOD9 UXZ3:UXZ9 VHV3:VHV9 VRR3:VRR9 WBN3:WBN9 WLJ3:WLJ9 WVF3:WVF9 WVP10 JD10 SZ10 ACV10 AMR10 AWN10 BGJ10 BQF10 CAB10 CJX10 CTT10 DDP10 DNL10 DXH10 EHD10 EQZ10 FAV10 FKR10 FUN10 GEJ10 GOF10 GYB10 HHX10 HRT10 IBP10 ILL10 IVH10 JFD10 JOZ10 JYV10 KIR10 KSN10 LCJ10 LMF10 LWB10 MFX10 MPT10 MZP10 NJL10 NTH10 ODD10 OMZ10 OWV10 PGR10 PQN10 QAJ10 QKF10 QUB10 RDX10 RNT10 RXP10 SHL10 SRH10 TBD10 TKZ10 TUV10 UER10 UON10 UYJ10 VIF10 VSB10 WBX10 WLT10 H3 H7:H18 IT11:IT18 SP11:SP18 ACL11:ACL18 AMH11:AMH18 AWD11:AWD18 BFZ11:BFZ18 BPV11:BPV18 BZR11:BZR18 CJN11:CJN18 CTJ11:CTJ18 DDF11:DDF18 DNB11:DNB18 DWX11:DWX18 EGT11:EGT18 EQP11:EQP18 FAL11:FAL18 FKH11:FKH18 FUD11:FUD18 GDZ11:GDZ18 GNV11:GNV18 GXR11:GXR18 HHN11:HHN18 HRJ11:HRJ18 IBF11:IBF18 ILB11:ILB18 IUX11:IUX18 JET11:JET18 JOP11:JOP18 JYL11:JYL18 KIH11:KIH18 KSD11:KSD18 LBZ11:LBZ18 LLV11:LLV18 LVR11:LVR18 MFN11:MFN18 MPJ11:MPJ18 MZF11:MZF18 NJB11:NJB18 NSX11:NSX18 OCT11:OCT18 OMP11:OMP18 OWL11:OWL18 PGH11:PGH18 PQD11:PQD18 PZZ11:PZZ18 QJV11:QJV18 QTR11:QTR18 RDN11:RDN18 RNJ11:RNJ18 RXF11:RXF18 SHB11:SHB18 SQX11:SQX18 TAT11:TAT18 TKP11:TKP18 TUL11:TUL18 UEH11:UEH18 UOD11:UOD18 UXZ11:UXZ18 VHV11:VHV18 VRR11:VRR18 WBN11:WBN18 WLJ11:WLJ18 WVF11:WVF18 IT20:IT28 WVF20:WVF28 WLJ20:WLJ28 WBN20:WBN28 VRR20:VRR28 VHV20:VHV28 UXZ20:UXZ28 UOD20:UOD28 UEH20:UEH28 TUL20:TUL28 TKP20:TKP28 TAT20:TAT28 SQX20:SQX28 SHB20:SHB28 RXF20:RXF28 RNJ20:RNJ28 RDN20:RDN28 QTR20:QTR28 QJV20:QJV28 PZZ20:PZZ28 PQD20:PQD28 PGH20:PGH28 OWL20:OWL28 OMP20:OMP28 OCT20:OCT28 NSX20:NSX28 NJB20:NJB28 MZF20:MZF28 MPJ20:MPJ28 MFN20:MFN28 LVR20:LVR28 LLV20:LLV28 LBZ20:LBZ28 KSD20:KSD28 KIH20:KIH28 JYL20:JYL28 JOP20:JOP28 JET20:JET28 IUX20:IUX28 ILB20:ILB28 IBF20:IBF28 HRJ20:HRJ28 HHN20:HHN28 GXR20:GXR28 GNV20:GNV28 GDZ20:GDZ28 FUD20:FUD28 FKH20:FKH28 FAL20:FAL28 EQP20:EQP28 EGT20:EGT28 DWX20:DWX28 DNB20:DNB28 DDF20:DDF28 CTJ20:CTJ28 CJN20:CJN28 BZR20:BZR28 BPV20:BPV28 BFZ20:BFZ28 AWD20:AWD28 AMH20:AMH28 ACL20:ACL28 SP20:SP28 H20:H28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IT3:IT9 SP3:SP9 ACL3:ACL9 AMH3:AMH9 AWD3:AWD9 BFZ3:BFZ9 BPV3:BPV9 BZR3:BZR9 CJN3:CJN9 CTJ3:CTJ9 DDF3:DDF9 DNB3:DNB9 DWX3:DWX9 EGT3:EGT9 EQP3:EQP9 FAL3:FAL9 FKH3:FKH9 FUD3:FUD9 GDZ3:GDZ9 GNV3:GNV9 GXR3:GXR9 HHN3:HHN9 HRJ3:HRJ9 IBF3:IBF9 ILB3:ILB9 IUX3:IUX9 JET3:JET9 JOP3:JOP9 JYL3:JYL9 KIH3:KIH9 KSD3:KSD9 LBZ3:LBZ9 LLV3:LLV9 LVR3:LVR9 MFN3:MFN9 MPJ3:MPJ9 MZF3:MZF9 NJB3:NJB9 NSX3:NSX9 OCT3:OCT9 OMP3:OMP9 OWL3:OWL9 PGH3:PGH9 PQD3:PQD9 PZZ3:PZZ9 QJV3:QJV9 QTR3:QTR9 RDN3:RDN9 RNJ3:RNJ9 RXF3:RXF9 SHB3:SHB9 SQX3:SQX9 TAT3:TAT9 TKP3:TKP9 TUL3:TUL9 UEH3:UEH9 UOD3:UOD9 UXZ3:UXZ9 VHV3:VHV9 VRR3:VRR9 WBN3:WBN9 WLJ3:WLJ9 WVF3:WVF9 WVP10 JD10 SZ10 ACV10 AMR10 AWN10 BGJ10 BQF10 CAB10 CJX10 CTT10 DDP10 DNL10 DXH10 EHD10 EQZ10 FAV10 FKR10 FUN10 GEJ10 GOF10 GYB10 HHX10 HRT10 IBP10 ILL10 IVH10 JFD10 JOZ10 JYV10 KIR10 KSN10 LCJ10 LMF10 LWB10 MFX10 MPT10 MZP10 NJL10 NTH10 ODD10 OMZ10 OWV10 PGR10 PQN10 QAJ10 QKF10 QUB10 RDX10 RNT10 RXP10 SHL10 SRH10 TBD10 TKZ10 TUV10 UER10 UON10 UYJ10 VIF10 VSB10 WBX10 WLT10 H3 H7:H18 IT11:IT18 SP11:SP18 ACL11:ACL18 AMH11:AMH18 AWD11:AWD18 BFZ11:BFZ18 BPV11:BPV18 BZR11:BZR18 CJN11:CJN18 CTJ11:CTJ18 DDF11:DDF18 DNB11:DNB18 DWX11:DWX18 EGT11:EGT18 EQP11:EQP18 FAL11:FAL18 FKH11:FKH18 FUD11:FUD18 GDZ11:GDZ18 GNV11:GNV18 GXR11:GXR18 HHN11:HHN18 HRJ11:HRJ18 IBF11:IBF18 ILB11:ILB18 IUX11:IUX18 JET11:JET18 JOP11:JOP18 JYL11:JYL18 KIH11:KIH18 KSD11:KSD18 LBZ11:LBZ18 LLV11:LLV18 LVR11:LVR18 MFN11:MFN18 MPJ11:MPJ18 MZF11:MZF18 NJB11:NJB18 NSX11:NSX18 OCT11:OCT18 OMP11:OMP18 OWL11:OWL18 PGH11:PGH18 PQD11:PQD18 PZZ11:PZZ18 QJV11:QJV18 QTR11:QTR18 RDN11:RDN18 RNJ11:RNJ18 RXF11:RXF18 SHB11:SHB18 SQX11:SQX18 TAT11:TAT18 TKP11:TKP18 TUL11:TUL18 UEH11:UEH18 UOD11:UOD18 UXZ11:UXZ18 VHV11:VHV18 VRR11:VRR18 WBN11:WBN18 WLJ11:WLJ18 WVF11:WVF18 IT20:IT28 WVF20:WVF28 WLJ20:WLJ28 WBN20:WBN28 VRR20:VRR28 VHV20:VHV28 UXZ20:UXZ28 UOD20:UOD28 UEH20:UEH28 TUL20:TUL28 TKP20:TKP28 TAT20:TAT28 SQX20:SQX28 SHB20:SHB28 RXF20:RXF28 RNJ20:RNJ28 RDN20:RDN28 QTR20:QTR28 QJV20:QJV28 PZZ20:PZZ28 PQD20:PQD28 PGH20:PGH28 OWL20:OWL28 OMP20:OMP28 OCT20:OCT28 NSX20:NSX28 NJB20:NJB28 MZF20:MZF28 MPJ20:MPJ28 MFN20:MFN28 LVR20:LVR28 LLV20:LLV28 LBZ20:LBZ28 KSD20:KSD28 KIH20:KIH28 JYL20:JYL28 JOP20:JOP28 JET20:JET28 IUX20:IUX28 ILB20:ILB28 IBF20:IBF28 HRJ20:HRJ28 HHN20:HHN28 GXR20:GXR28 GNV20:GNV28 GDZ20:GDZ28 FUD20:FUD28 FKH20:FKH28 FAL20:FAL28 EQP20:EQP28 EGT20:EGT28 DWX20:DWX28 DNB20:DNB28 DDF20:DDF28 CTJ20:CTJ28 CJN20:CJN28 BZR20:BZR28 BPV20:BPV28 BFZ20:BFZ28 AWD20:AWD28 AMH20:AMH28 ACL20:ACL28 SP20:SP28 H20:H33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail,NA,NT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G25:G28 G3 G7 G9:G17 G19:G23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G25:G28 G3 G7 G9:G17 G19:G23 G30:G33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
   </dataValidations>
